--- a/commit_files/'shengjh'.xlsx
+++ b/commit_files/'shengjh'.xlsx
@@ -107,7 +107,7 @@
     <t>2020-08-28 18:19:24</t>
   </si>
   <si>
-    <t>Add proxy pulsar thirdparty cmake and update tikv storeage interface</t>
+    <t>Add tikv storage,proxy pulsar thirdparty</t>
   </si>
   <si>
     <t>2020-09-01 17:35:48</t>
@@ -722,8 +722,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -756,27 +756,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,16 +779,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,46 +818,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,16 +834,53 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,19 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +931,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,133 +1075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,15 +1094,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,6 +1152,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1178,150 +1180,148 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35" outlineLevelCol="3"/>
@@ -1744,16 +1744,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" hidden="true" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("https://github.com/zilliztech/milvus-distributed/commit/543f15fe243b1701adf09186313a955fa2881dc9","543f15fe243b1701adf09186313a955fa2881dc9")</f>
         <v>543f15fe243b1701adf09186313a955fa2881dc9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
